--- a/tables/Table_S6_trycycler_assemblies.xlsx
+++ b/tables/Table_S6_trycycler_assemblies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Dropbox/Uni_research/Projects/Polypolish_paper/GitHub_repo/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC7F59D-FA34-5446-996B-5677A9FFE67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B294DC3-D3C4-994A-9ADD-5724F3D2A0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10740" yWindow="-18980" windowWidth="25360" windowHeight="17760" xr2:uid="{F93A329D-624D-7045-B20F-B5241CBAB250}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{F93A329D-624D-7045-B20F-B5241CBAB250}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -129,7 +129,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Table S5:</t>
+      <t>Table S6:</t>
     </r>
     <r>
       <rPr>
